--- a/Documents/Test_plan/testReport.xlsx
+++ b/Documents/Test_plan/testReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Sub Levels</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Guerilla Usability test</t>
+  </si>
+  <si>
+    <t>Connect to database</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,6 +2098,25 @@
         <v>42710</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="40">
+        <v>42710</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>7</v>
       </c>
     </row>
